--- a/prototype3.xlsx
+++ b/prototype3.xlsx
@@ -23,23 +23,22 @@
     <sheet name="score" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">RATINGS!$A$2:$AB$82</definedName>
     <definedName name="agricultural">beneficiaries!$D$1</definedName>
     <definedName name="Agricultural_Processor">RATINGS!$B$3</definedName>
     <definedName name="Agricultural_Processors">RATINGS!#REF!</definedName>
     <definedName name="agroecosystems">terrestrial!$F$2</definedName>
-    <definedName name="Anglers">RATINGS!$B$71</definedName>
-    <definedName name="Aquaculturists">RATINGS!$B$11</definedName>
+    <definedName name="Anglers">RATINGS!$B$37</definedName>
+    <definedName name="Aquaculturists">RATINGS!$B$7</definedName>
     <definedName name="AQUATIC">aquatic!$A$1</definedName>
     <definedName name="aquatic_subclass">dropdown!$D$2:$D$7</definedName>
-    <definedName name="Artists">RATINGS!$B$51</definedName>
+    <definedName name="Artists">RATINGS!$B$27</definedName>
     <definedName name="barren_rock_and_sand">terrestrial!$J$2</definedName>
     <definedName name="bene_ag">dropdown!$G$3:$G$9</definedName>
     <definedName name="BENEFICIARIES">beneficiaries!$A$1</definedName>
     <definedName name="beneficiary_sector">dropdown!$E$2:$E$10</definedName>
-    <definedName name="Boaters">RATINGS!$B$75</definedName>
-    <definedName name="Building_Material_Subsisters">RATINGS!$B$63</definedName>
-    <definedName name="CAFO_Operator">RATINGS!$B$7</definedName>
+    <definedName name="Boaters">RATINGS!$B$39</definedName>
+    <definedName name="Building_Material_Subsisters">RATINGS!$B$33</definedName>
+    <definedName name="CAFO_Operator">RATINGS!$B$5</definedName>
     <definedName name="CAFO_Operators">RATINGS!#REF!</definedName>
     <definedName name="classes">dropdown!$C$2:$C$3</definedName>
     <definedName name="COMM_INDUSTRIAL">dropdown!$G$13:$G$20</definedName>
@@ -47,60 +46,60 @@
     <definedName name="created_greenspace">terrestrial!$G$2</definedName>
     <definedName name="cultural">dropdown!$G$33:$G$36</definedName>
     <definedName name="cutural">dropdown!$G$33:$G$36</definedName>
-    <definedName name="Educators_and_Students">RATINGS!$B$53</definedName>
-    <definedName name="Electric_and_other_Energy_">RATINGS!$B$25</definedName>
+    <definedName name="Educators_and_Students">RATINGS!$B$28</definedName>
+    <definedName name="Electric_and_other_Energy_">RATINGS!$B$14</definedName>
     <definedName name="Electric_and_other_Energy_Generators">beneficiaries!#REF!</definedName>
-    <definedName name="existence">RATINGS!$B$81</definedName>
-    <definedName name="Experiencers_and_Viewers">RATINGS!$B$65</definedName>
-    <definedName name="Farmers">RATINGS!$B$13</definedName>
-    <definedName name="Food_Extractor">RATINGS!$B$33</definedName>
+    <definedName name="existence">RATINGS!$B$42</definedName>
+    <definedName name="Experiencers_and_Viewers">RATINGS!$B$34</definedName>
+    <definedName name="Farmers">RATINGS!$B$8</definedName>
+    <definedName name="Food_Extractor">RATINGS!$B$18</definedName>
     <definedName name="Food_Extractors">beneficiaries!#REF!</definedName>
-    <definedName name="Food_Pickers_and_Gatherers">RATINGS!$B$67</definedName>
-    <definedName name="Food_Subsisters">RATINGS!$B$59</definedName>
-    <definedName name="Foresters">RATINGS!$B$15</definedName>
+    <definedName name="Food_Pickers_and_Gatherers">RATINGS!$B$35</definedName>
+    <definedName name="Food_Subsisters">RATINGS!$B$31</definedName>
+    <definedName name="Foresters">RATINGS!$B$9</definedName>
     <definedName name="forests">terrestrial!$E$2</definedName>
     <definedName name="Fur___Hide_Trappers_and_Hunters">beneficiaries!#REF!</definedName>
-    <definedName name="Fur_Hide_Trappers___Hunters">RATINGS!$B$31</definedName>
+    <definedName name="Fur_Hide_Trappers___Hunters">RATINGS!$B$17</definedName>
     <definedName name="FUR_HIDE_TRAPPERS_HUNTERS">beneficiaries!#REF!</definedName>
-    <definedName name="Goods">RATINGS!$B$37</definedName>
+    <definedName name="Goods">RATINGS!$B$20</definedName>
     <definedName name="gov_muni">dropdown!$G$27:$G$30</definedName>
     <definedName name="government_municipal_residential">beneficiaries!$F$1</definedName>
     <definedName name="grasslands">terrestrial!$H$2</definedName>
     <definedName name="groundwater">aquatic!$I$2</definedName>
-    <definedName name="Hunters">RATINGS!$B$69</definedName>
+    <definedName name="Hunters">RATINGS!$B$36</definedName>
     <definedName name="ice_and_snow">terrestrial!$L$2</definedName>
     <definedName name="IND_COMM">dropdown!$G$13:$G$20</definedName>
-    <definedName name="Industrial_Dis">RATINGS!$B$23</definedName>
+    <definedName name="Industrial_Dis">RATINGS!$B$13</definedName>
     <definedName name="Industrial_Dischargers">beneficiaries!#REF!</definedName>
-    <definedName name="Industrial_Proc">RATINGS!$B$21</definedName>
+    <definedName name="Industrial_Proc">RATINGS!$B$12</definedName>
     <definedName name="Industrial_Processors">beneficiaries!#REF!</definedName>
-    <definedName name="irrigator">RATINGS!$B$5</definedName>
+    <definedName name="irrigator">RATINGS!$B$4</definedName>
     <definedName name="Irrigators">RATINGS!#REF!</definedName>
     <definedName name="lakes_and_ponds">aquatic!$F$2</definedName>
-    <definedName name="Livestock_Grazer">RATINGS!$B$9</definedName>
+    <definedName name="Livestock_Grazer">RATINGS!$B$6</definedName>
     <definedName name="Livestock_Grazers">RATINGS!#REF!</definedName>
-    <definedName name="Military_Coast_Guard">RATINGS!$B$47</definedName>
-    <definedName name="Municipal_Drinking_Water_Plant_Operators">RATINGS!$B$41</definedName>
+    <definedName name="Military_Coast_Guard">RATINGS!$B$25</definedName>
+    <definedName name="Municipal_Drinking_Water_Plant_Operators">RATINGS!$B$22</definedName>
     <definedName name="near_coastal_marine_and_estuaries">aquatic!$G$2</definedName>
     <definedName name="non_">dropdown!$G$53:$G$54</definedName>
     <definedName name="non_use">beneficiaries!$K$1</definedName>
     <definedName name="open_ocean_and_seas">aquatic!$H$2</definedName>
-    <definedName name="options_bequest">RATINGS!$B$79</definedName>
+    <definedName name="options_bequest">RATINGS!$B$41</definedName>
     <definedName name="other">beneficiaries!$L$1</definedName>
-    <definedName name="People">RATINGS!$B$39</definedName>
+    <definedName name="People">RATINGS!$B$21</definedName>
     <definedName name="Pharmaceutical_and_Food_Supplement_Suppliers">beneficiaries!#REF!</definedName>
-    <definedName name="Pharmaceutical_Food_Supplement_Suppliers">RATINGS!$B$29</definedName>
+    <definedName name="Pharmaceutical_Food_Supplement_Suppliers">RATINGS!$B$16</definedName>
     <definedName name="RATINGS">dropdown!$J$2:$J$11</definedName>
     <definedName name="rec">dropdown!$G$45:$G$51</definedName>
     <definedName name="recreational">beneficiaries!$I$1</definedName>
-    <definedName name="Researchers">RATINGS!$B$55</definedName>
-    <definedName name="Residential_Property_Owners">RATINGS!$B$45</definedName>
-    <definedName name="Resource_Dep_Businesses">RATINGS!$B$27</definedName>
+    <definedName name="Researchers">RATINGS!$B$29</definedName>
+    <definedName name="Residential_Property_Owners">RATINGS!$B$24</definedName>
+    <definedName name="Resource_Dep_Businesses">RATINGS!$B$15</definedName>
     <definedName name="RESOURCE_DEPENDENT_BUSINESS">beneficiaries!#REF!</definedName>
     <definedName name="Resource_Dependent_Businesses">beneficiaries!#REF!</definedName>
     <definedName name="rivers_and_streams">aquatic!$D$2</definedName>
     <definedName name="scrublands">terrestrial!$I$2</definedName>
-    <definedName name="Spiritual_and_Ceremonial_Participants_and_Participants_of_Celebration">RATINGS!$B$49</definedName>
+    <definedName name="Spiritual_and_Ceremonial_Participants_and_Participants_of_Celebration">RATINGS!$B$26</definedName>
     <definedName name="spiritual_cultural">beneficiaries!$J$1</definedName>
     <definedName name="SUB_IND">dropdown!$G$13:$G$20</definedName>
     <definedName name="subs">dropdown!$G$39:$G$42</definedName>
@@ -108,17 +107,17 @@
     <definedName name="TERRESTRIAL">terrestrial!$A$1</definedName>
     <definedName name="terrestrial_subclass">dropdown!$D$9:$D$16</definedName>
     <definedName name="Timber__Fiber__and_Ornamental_Extractors">beneficiaries!#REF!</definedName>
-    <definedName name="Timber_Fiber_and_Fur__Hide_Subsisters">RATINGS!$B$61</definedName>
-    <definedName name="TIMBER_FIBER_AND_ORNAMENTAL">RATINGS!$B$19</definedName>
+    <definedName name="Timber_Fiber_and_Fur__Hide_Subsisters">RATINGS!$B$32</definedName>
+    <definedName name="TIMBER_FIBER_AND_ORNAMENTAL">RATINGS!$B$11</definedName>
     <definedName name="TIMBER_FIBER_AND_ORNAMENTAL_EXTRACTORS">beneficiaries!#REF!</definedName>
     <definedName name="transport">dropdown!$G$23:$G$24</definedName>
     <definedName name="transportation">beneficiaries!$G$1</definedName>
-    <definedName name="transporters_of_goods">RATINGS!$B$37</definedName>
-    <definedName name="transporters_of_people">RATINGS!$B$39</definedName>
+    <definedName name="transporters_of_goods">RATINGS!$B$20</definedName>
+    <definedName name="transporters_of_people">RATINGS!$B$21</definedName>
     <definedName name="tundra">terrestrial!$K$2</definedName>
-    <definedName name="Waders_Swimmers_and_Divers">RATINGS!$B$73</definedName>
-    <definedName name="Waste_Water_Treatment_Plant_Operators">RATINGS!$B$43</definedName>
-    <definedName name="Water_Subsisters">RATINGS!$B$57</definedName>
+    <definedName name="Waders_Swimmers_and_Divers">RATINGS!$B$38</definedName>
+    <definedName name="Waste_Water_Treatment_Plant_Operators">RATINGS!$B$23</definedName>
+    <definedName name="Water_Subsisters">RATINGS!$B$30</definedName>
     <definedName name="wetlands">aquatic!$E$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -226,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
   <si>
     <t>dropdown</t>
   </si>
@@ -627,9 +626,6 @@
     <t>seed dispersal(?)</t>
   </si>
   <si>
-    <t xml:space="preserve">What attribute is used/valued?   </t>
-  </si>
-  <si>
     <t>Environmental Classes</t>
   </si>
   <si>
@@ -663,29 +659,20 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Ed</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Chester</t>
-  </si>
-  <si>
     <t>\/ Beneficiaries \/</t>
   </si>
   <si>
     <t>\/ Beneficiary Categories \/</t>
+  </si>
+  <si>
+    <t>What Attribute is used/valued?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +754,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -830,7 +822,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1016,26 +1008,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="8" tint="0.79998168889431442"/>
@@ -1056,64 +1028,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="8" tint="0.79998168889431442"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="0.79998168889431442"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color theme="8" tint="0.79998168889431442"/>
       </left>
-      <right style="thin">
-        <color theme="8" tint="0.79998168889431442"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.79998168889431442"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1121,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1250,35 +1179,25 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,30 +1208,112 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <border>
@@ -1351,6 +1352,457 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1362,6 +1814,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AA42" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="43">
+  <autoFilter ref="A2:AA42"/>
+  <tableColumns count="27">
+    <tableColumn id="1" name="\/ Beneficiary Categories \/" dataDxfId="42"/>
+    <tableColumn id="2" name="\/ Beneficiaries \/" dataDxfId="41"/>
+    <tableColumn id="3" name="Amount of Water" dataDxfId="40"/>
+    <tableColumn id="4" name="Substrate" dataDxfId="39"/>
+    <tableColumn id="5" name="Water Surface State" dataDxfId="38"/>
+    <tableColumn id="6" name="seed dispersal(?)" dataDxfId="37"/>
+    <tableColumn id="7" name="soil formation and nutrients" dataDxfId="36"/>
+    <tableColumn id="8" name="water retention (erosion control?)" dataDxfId="35"/>
+    <tableColumn id="9" name="Habitat Mosaic" dataDxfId="34"/>
+    <tableColumn id="10" name="WATER Temperature" dataDxfId="33"/>
+    <tableColumn id="11" name="Clarity" dataDxfId="32"/>
+    <tableColumn id="12" name="Oxygen Level" dataDxfId="31"/>
+    <tableColumn id="13" name="Conductivity / Salinity" dataDxfId="30"/>
+    <tableColumn id="14" name="Chemicals" dataDxfId="29"/>
+    <tableColumn id="15" name="Pathogens &amp; Parasites" dataDxfId="28"/>
+    <tableColumn id="16" name="Invertebrates (aquatic and terrestrial systems?)" dataDxfId="27"/>
+    <tableColumn id="17" name="Fish" dataDxfId="26"/>
+    <tableColumn id="18" name="Wildlife " dataDxfId="25"/>
+    <tableColumn id="19" name="Vegetation" dataDxfId="24"/>
+    <tableColumn id="20" name="Genetic Diversity" dataDxfId="23"/>
+    <tableColumn id="21" name="Visual Appearance" dataDxfId="22"/>
+    <tableColumn id="22" name="Odor" dataDxfId="21"/>
+    <tableColumn id="23" name="Sound" dataDxfId="20"/>
+    <tableColumn id="24" name="Tactile" dataDxfId="19"/>
+    <tableColumn id="25" name="Taste" dataDxfId="18"/>
+    <tableColumn id="26" name="Explanation" dataDxfId="17"/>
+    <tableColumn id="27" name="What Attribute is used/valued?" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1642,42 +2130,42 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
         <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2996,7 @@
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="67" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="29"/>
@@ -2541,7 +3029,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="34"/>
       <c r="D2" s="39"/>
       <c r="E2" s="47"/>
@@ -3563,156 +4051,165 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CG82"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" style="58" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="51" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="46" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="10.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="13" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="46" customWidth="1"/>
+    <col min="14" max="15" width="12.42578125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" style="46" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="46" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="46" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="46" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.5703125" style="46" customWidth="1"/>
     <col min="27" max="27" width="17" style="46" customWidth="1"/>
     <col min="28" max="28" width="16" style="46" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="75" t="s">
+    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="74" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="74" t="s">
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="59"/>
-      <c r="CG1" s="46" t="s">
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="59"/>
+    </row>
+    <row r="2" spans="1:42" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:85" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="S2" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="T2" s="62" t="s">
+      <c r="T2" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="U2" s="62" t="s">
+      <c r="U2" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="W2" s="62" t="s">
+      <c r="W2" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="X2" s="62" t="s">
+      <c r="X2" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="Y2" s="62" t="s">
+      <c r="Y2" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" s="63" t="s">
+      <c r="Z2" s="75" t="s">
         <v>127</v>
+      </c>
+      <c r="AA2" s="79" t="s">
+        <v>146</v>
       </c>
       <c r="AC2" s="55"/>
       <c r="AD2" s="55"/>
@@ -3728,2588 +4225,1335 @@
       <c r="AN2" s="55"/>
       <c r="AO2" s="55"/>
       <c r="AP2" s="55"/>
-      <c r="CG2" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:85" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+    </row>
+    <row r="3" spans="1:42" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>120</v>
       </c>
       <c r="C3" s="46"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="66"/>
-      <c r="CG3" s="54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:85" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="78"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="CG4" s="54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="63"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="66"/>
-    </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="63"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="66"/>
-    </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="63"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="66"/>
-    </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="B7" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="63"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="66"/>
-    </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="B8" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="63"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="66"/>
-    </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="B9" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="63"/>
+    </row>
+    <row r="10" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="66"/>
-    </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="66"/>
-    </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="66"/>
-    </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="66"/>
-    </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="66"/>
-    </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="66"/>
-    </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="66"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="52" t="s">
+      <c r="B10" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="66"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="66"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="63"/>
+    </row>
+    <row r="11" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74" t="s">
         <v>48</v>
       </c>
+      <c r="B11" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="63"/>
+    </row>
+    <row r="12" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="63"/>
+    </row>
+    <row r="13" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="63"/>
+    </row>
+    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="63"/>
+    </row>
+    <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="63"/>
+    </row>
+    <row r="16" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="63"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="63"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="63"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="74" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="66"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="63"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
+        <v>51</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="66"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="63"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="74" t="s">
+        <v>51</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="66"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="66"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="66"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="66"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="66"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="66"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="66"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="66"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="66"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
-        <v>48</v>
+        <v>84</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="63"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="63"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="63"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="63"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="63"/>
+    </row>
+    <row r="26" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="63"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="63"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="63"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="63"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="66"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="81" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="63"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="66"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="63"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="66"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="81" t="s">
-        <v>48</v>
+        <v>66</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="63"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="66"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="81" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="63"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="66"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81" t="s">
-        <v>48</v>
+        <v>73</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="63"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="66"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="63"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="66"/>
-    </row>
-    <row r="37" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="81" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="63"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="66"/>
-    </row>
-    <row r="38" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="81" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="63"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="66"/>
-    </row>
-    <row r="39" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="81" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="63"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="66"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="63"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="66"/>
-    </row>
-    <row r="41" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="66"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="81" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="63"/>
+    </row>
+    <row r="41" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="63"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="74" t="s">
+        <v>86</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="65"/>
-      <c r="V42" s="65"/>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="66"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="65"/>
-      <c r="W43" s="65"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="66"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="65"/>
-      <c r="U44" s="65"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="66"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="65"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="66"/>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="66"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="65"/>
-      <c r="S47" s="65"/>
-      <c r="T47" s="65"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="65"/>
-      <c r="W47" s="65"/>
-      <c r="X47" s="65"/>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="66"/>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65"/>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="66"/>
-    </row>
-    <row r="49" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="65"/>
-      <c r="U49" s="65"/>
-      <c r="V49" s="65"/>
-      <c r="W49" s="65"/>
-      <c r="X49" s="65"/>
-      <c r="Y49" s="65"/>
-      <c r="Z49" s="66"/>
-    </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="65"/>
-      <c r="S50" s="65"/>
-      <c r="T50" s="65"/>
-      <c r="U50" s="65"/>
-      <c r="V50" s="65"/>
-      <c r="W50" s="65"/>
-      <c r="X50" s="65"/>
-      <c r="Y50" s="65"/>
-      <c r="Z50" s="66"/>
-    </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="65"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65"/>
-      <c r="V51" s="65"/>
-      <c r="W51" s="65"/>
-      <c r="X51" s="65"/>
-      <c r="Y51" s="65"/>
-      <c r="Z51" s="66"/>
-    </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="66"/>
-    </row>
-    <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="65"/>
-      <c r="Q53" s="65"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="65"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="65"/>
-      <c r="W53" s="65"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="65"/>
-      <c r="Z53" s="66"/>
-    </row>
-    <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="65"/>
-      <c r="R54" s="65"/>
-      <c r="S54" s="65"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="65"/>
-      <c r="V54" s="65"/>
-      <c r="W54" s="65"/>
-      <c r="X54" s="65"/>
-      <c r="Y54" s="65"/>
-      <c r="Z54" s="66"/>
-    </row>
-    <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="65"/>
-      <c r="R55" s="65"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="65"/>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="66"/>
-    </row>
-    <row r="56" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="65"/>
-      <c r="S56" s="65"/>
-      <c r="T56" s="65"/>
-      <c r="U56" s="65"/>
-      <c r="V56" s="65"/>
-      <c r="W56" s="65"/>
-      <c r="X56" s="65"/>
-      <c r="Y56" s="65"/>
-      <c r="Z56" s="66"/>
-    </row>
-    <row r="57" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="65"/>
-      <c r="U57" s="65"/>
-      <c r="V57" s="65"/>
-      <c r="W57" s="65"/>
-      <c r="X57" s="65"/>
-      <c r="Y57" s="65"/>
-      <c r="Z57" s="66"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="65"/>
-      <c r="T58" s="65"/>
-      <c r="U58" s="65"/>
-      <c r="V58" s="65"/>
-      <c r="W58" s="65"/>
-      <c r="X58" s="65"/>
-      <c r="Y58" s="65"/>
-      <c r="Z58" s="66"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="64"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="65"/>
-      <c r="T59" s="65"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="65"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="65"/>
-      <c r="Z59" s="66"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="65"/>
-      <c r="S60" s="65"/>
-      <c r="T60" s="65"/>
-      <c r="U60" s="65"/>
-      <c r="V60" s="65"/>
-      <c r="W60" s="65"/>
-      <c r="X60" s="65"/>
-      <c r="Y60" s="65"/>
-      <c r="Z60" s="66"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
-      <c r="O61" s="65"/>
-      <c r="P61" s="65"/>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="65"/>
-      <c r="S61" s="65"/>
-      <c r="T61" s="65"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
-      <c r="X61" s="65"/>
-      <c r="Y61" s="65"/>
-      <c r="Z61" s="66"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="65"/>
-      <c r="R62" s="65"/>
-      <c r="S62" s="65"/>
-      <c r="T62" s="65"/>
-      <c r="U62" s="65"/>
-      <c r="V62" s="65"/>
-      <c r="W62" s="65"/>
-      <c r="X62" s="65"/>
-      <c r="Y62" s="65"/>
-      <c r="Z62" s="66"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
-      <c r="U63" s="65"/>
-      <c r="V63" s="65"/>
-      <c r="W63" s="65"/>
-      <c r="X63" s="65"/>
-      <c r="Y63" s="65"/>
-      <c r="Z63" s="66"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="65"/>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="65"/>
-      <c r="S64" s="65"/>
-      <c r="T64" s="65"/>
-      <c r="U64" s="65"/>
-      <c r="V64" s="65"/>
-      <c r="W64" s="65"/>
-      <c r="X64" s="65"/>
-      <c r="Y64" s="65"/>
-      <c r="Z64" s="66"/>
-    </row>
-    <row r="65" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="65"/>
-      <c r="S65" s="65"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="65"/>
-      <c r="V65" s="65"/>
-      <c r="W65" s="65"/>
-      <c r="X65" s="65"/>
-      <c r="Y65" s="65"/>
-      <c r="Z65" s="66"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="65"/>
-      <c r="N66" s="65"/>
-      <c r="O66" s="65"/>
-      <c r="P66" s="65"/>
-      <c r="Q66" s="65"/>
-      <c r="R66" s="65"/>
-      <c r="S66" s="65"/>
-      <c r="T66" s="65"/>
-      <c r="U66" s="65"/>
-      <c r="V66" s="65"/>
-      <c r="W66" s="65"/>
-      <c r="X66" s="65"/>
-      <c r="Y66" s="65"/>
-      <c r="Z66" s="66"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
-      <c r="R67" s="65"/>
-      <c r="S67" s="65"/>
-      <c r="T67" s="65"/>
-      <c r="U67" s="65"/>
-      <c r="V67" s="65"/>
-      <c r="W67" s="65"/>
-      <c r="X67" s="65"/>
-      <c r="Y67" s="65"/>
-      <c r="Z67" s="66"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
-      <c r="O68" s="65"/>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="65"/>
-      <c r="R68" s="65"/>
-      <c r="S68" s="65"/>
-      <c r="T68" s="65"/>
-      <c r="U68" s="65"/>
-      <c r="V68" s="65"/>
-      <c r="W68" s="65"/>
-      <c r="X68" s="65"/>
-      <c r="Y68" s="65"/>
-      <c r="Z68" s="66"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="65"/>
-      <c r="O69" s="65"/>
-      <c r="P69" s="65"/>
-      <c r="Q69" s="65"/>
-      <c r="R69" s="65"/>
-      <c r="S69" s="65"/>
-      <c r="T69" s="65"/>
-      <c r="U69" s="65"/>
-      <c r="V69" s="65"/>
-      <c r="W69" s="65"/>
-      <c r="X69" s="65"/>
-      <c r="Y69" s="65"/>
-      <c r="Z69" s="66"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
-      <c r="N70" s="65"/>
-      <c r="O70" s="65"/>
-      <c r="P70" s="65"/>
-      <c r="Q70" s="65"/>
-      <c r="R70" s="65"/>
-      <c r="S70" s="65"/>
-      <c r="T70" s="65"/>
-      <c r="U70" s="65"/>
-      <c r="V70" s="65"/>
-      <c r="W70" s="65"/>
-      <c r="X70" s="65"/>
-      <c r="Y70" s="65"/>
-      <c r="Z70" s="66"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
-      <c r="O71" s="65"/>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="65"/>
-      <c r="S71" s="65"/>
-      <c r="T71" s="65"/>
-      <c r="U71" s="65"/>
-      <c r="V71" s="65"/>
-      <c r="W71" s="65"/>
-      <c r="X71" s="65"/>
-      <c r="Y71" s="65"/>
-      <c r="Z71" s="66"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="65"/>
-      <c r="O72" s="65"/>
-      <c r="P72" s="65"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="65"/>
-      <c r="S72" s="65"/>
-      <c r="T72" s="65"/>
-      <c r="U72" s="65"/>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="66"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65"/>
-      <c r="N73" s="65"/>
-      <c r="O73" s="65"/>
-      <c r="P73" s="65"/>
-      <c r="Q73" s="65"/>
-      <c r="R73" s="65"/>
-      <c r="S73" s="65"/>
-      <c r="T73" s="65"/>
-      <c r="U73" s="65"/>
-      <c r="V73" s="65"/>
-      <c r="W73" s="65"/>
-      <c r="X73" s="65"/>
-      <c r="Y73" s="65"/>
-      <c r="Z73" s="66"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="65"/>
-      <c r="N74" s="65"/>
-      <c r="O74" s="65"/>
-      <c r="P74" s="65"/>
-      <c r="Q74" s="65"/>
-      <c r="R74" s="65"/>
-      <c r="S74" s="65"/>
-      <c r="T74" s="65"/>
-      <c r="U74" s="65"/>
-      <c r="V74" s="65"/>
-      <c r="W74" s="65"/>
-      <c r="X74" s="65"/>
-      <c r="Y74" s="65"/>
-      <c r="Z74" s="66"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
-      <c r="O75" s="65"/>
-      <c r="P75" s="65"/>
-      <c r="Q75" s="65"/>
-      <c r="R75" s="65"/>
-      <c r="S75" s="65"/>
-      <c r="T75" s="65"/>
-      <c r="U75" s="65"/>
-      <c r="V75" s="65"/>
-      <c r="W75" s="65"/>
-      <c r="X75" s="65"/>
-      <c r="Y75" s="65"/>
-      <c r="Z75" s="66"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
-      <c r="N76" s="65"/>
-      <c r="O76" s="65"/>
-      <c r="P76" s="65"/>
-      <c r="Q76" s="65"/>
-      <c r="R76" s="65"/>
-      <c r="S76" s="65"/>
-      <c r="T76" s="65"/>
-      <c r="U76" s="65"/>
-      <c r="V76" s="65"/>
-      <c r="W76" s="65"/>
-      <c r="X76" s="65"/>
-      <c r="Y76" s="65"/>
-      <c r="Z76" s="66"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
-      <c r="N77" s="65"/>
-      <c r="O77" s="65"/>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="65"/>
-      <c r="T77" s="65"/>
-      <c r="U77" s="65"/>
-      <c r="V77" s="65"/>
-      <c r="W77" s="65"/>
-      <c r="X77" s="65"/>
-      <c r="Y77" s="65"/>
-      <c r="Z77" s="66"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="65"/>
-      <c r="N78" s="65"/>
-      <c r="O78" s="65"/>
-      <c r="P78" s="65"/>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="65"/>
-      <c r="S78" s="65"/>
-      <c r="T78" s="65"/>
-      <c r="U78" s="65"/>
-      <c r="V78" s="65"/>
-      <c r="W78" s="65"/>
-      <c r="X78" s="65"/>
-      <c r="Y78" s="65"/>
-      <c r="Z78" s="66"/>
-    </row>
-    <row r="79" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="65"/>
-      <c r="O79" s="65"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="65"/>
-      <c r="S79" s="65"/>
-      <c r="T79" s="65"/>
-      <c r="U79" s="65"/>
-      <c r="V79" s="65"/>
-      <c r="W79" s="65"/>
-      <c r="X79" s="65"/>
-      <c r="Y79" s="65"/>
-      <c r="Z79" s="66"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C80" s="64"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
-      <c r="M80" s="65"/>
-      <c r="N80" s="65"/>
-      <c r="O80" s="65"/>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="65"/>
-      <c r="R80" s="65"/>
-      <c r="S80" s="65"/>
-      <c r="T80" s="65"/>
-      <c r="U80" s="65"/>
-      <c r="V80" s="65"/>
-      <c r="W80" s="65"/>
-      <c r="X80" s="65"/>
-      <c r="Y80" s="65"/>
-      <c r="Z80" s="66"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="64"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
-      <c r="M81" s="65"/>
-      <c r="N81" s="65"/>
-      <c r="O81" s="65"/>
-      <c r="P81" s="65"/>
-      <c r="Q81" s="65"/>
-      <c r="R81" s="65"/>
-      <c r="S81" s="65"/>
-      <c r="T81" s="65"/>
-      <c r="U81" s="65"/>
-      <c r="V81" s="65"/>
-      <c r="W81" s="65"/>
-      <c r="X81" s="65"/>
-      <c r="Y81" s="65"/>
-      <c r="Z81" s="66"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="67"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="68"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="68"/>
-      <c r="R82" s="68"/>
-      <c r="S82" s="68"/>
-      <c r="T82" s="68"/>
-      <c r="U82" s="68"/>
-      <c r="V82" s="68"/>
-      <c r="W82" s="68"/>
-      <c r="X82" s="68"/>
-      <c r="Y82" s="68"/>
-      <c r="Z82" s="69"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="76"/>
+      <c r="AA42" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB82"/>
   <mergeCells count="4">
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="C1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B82">
+  <conditionalFormatting sqref="B3:B42">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -6317,7 +5561,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:Z82">
+  <conditionalFormatting sqref="C3:Z42">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6330,23 +5574,25 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:AA41">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:AA42">
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:Z80">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" xWindow="317" yWindow="405" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB5:AC5 AB9:AC9 AB7:AC7 AD5:AX10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4:AX6">
       <formula1>RATINGS</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC77:AH77">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC40:AH40">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>
@@ -6354,6 +5600,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -6370,7 +5619,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C3:Z82</xm:sqref>
+          <xm:sqref>C3:Z42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6389,10 +5638,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="73"/>
+      <c r="A1" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
